--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968EBA09-BBC4-4D68-BA79-F26BCCFF4B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE17A40-AD8A-49AD-A154-6965D32DFA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2977,7 +2977,7 @@
         <v>112</v>
       </c>
       <c r="E59" s="12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F59" s="12"/>
       <c r="G59" s="25"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B05D88-D6D2-4077-9EBF-4BC9DF8FD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -168,13 +169,6 @@
     <t>週期基準</t>
   </si>
   <si>
-    <t>1:日 2:月 3:週</t>
-  </si>
-  <si>
-    <t>Y:是 N:否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>指定基準日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -553,27 +547,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-00:本人
-01: 夫
-02: 妻
-03: 父
-04: 母
-05: 子
-06: 女
-07: 兄
-08: 弟
-09: 姊
-10: 妹
-11: 姪子
-99: 其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:男  2:女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RelationName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,13 +663,6 @@
   <si>
     <t>FacmNo asc,BormNo asc, NextPayIntDate asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-1: 機動 
-2: 固定
-3: 定期機動</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PaidTerms</t>
@@ -817,12 +783,6 @@
     <t>計息方式</t>
   </si>
   <si>
-    <t xml:space="preserve">共用代碼檔
-1: 按日計息  
-2: 按月計息  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findByCustNoandFacmNo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -833,17 +793,6 @@
   <si>
     <t>BormNo asc</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-01: 週轉金
-02: 購置不動產
-03: 營業用資產
-04: 固定資產
-05: 企業投資
-06: 購置動產
-09: 其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>資金用途別</t>
@@ -967,24 +916,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔(PieceCode)
-A: 新貸件
-B: 其他額度
-C: 原額度
-D: 新增額度
-E: 展期
-1: 新貸件
-2: 其他額度
-3: 原額度
-4: 新增額度
-5: 展期件
-6: 六個月動支
-7: 服務件
-8: 特殊件
-9: 固特利契轉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>計件代碼2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1013,46 +944,121 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1STEP TX -&gt; 0   
-2STEP TX -&gt; 1 2
-3STEP TX -&gt; 1 2 3 4   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 正常戶
+    <t>手續費</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandlingFee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 
+1.展期撥款(不同額度)
+2.借新還舊撥款(同額度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常戶
 1:展期
-2: 催收戶
-3: 結案戶
-4: 逾期戶(顯示用)
-5: 催收結案戶
-6: 呆帳戶
-7: 部分轉呆戶
-8: 債權轉讓戶
-9: 呆帳結案戶
+2:催收戶
+3:結案戶
+4:逾期戶(顯示用)
+5:催收結案戶
+6:呆帳戶
+7:部分轉呆戶
+8:債權轉讓戶
+9:呆帳結案戶
 97:預約撥款已刪除
 98:預約已撥款
 99:預約撥款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>手續費</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandlingFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 
-1.展期撥款(不同額度)
-2.借新還舊撥款(同額度)</t>
+    <t>共用代碼檔
+1:機動 
+2:固定
+3:定期機動</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">共用代碼檔
+1:按日計息  
+2:按月計息  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:日
+2:月
+3:週</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔(PieceCode)
+A:新貸件
+B:其他額度
+C:原額度
+D:新增額度
+E:展期
+1:新貸件
+2:其他額度
+3:原額度
+4:新增額度
+5:展期件
+6:六個月動支
+7:服務件
+8:特殊件
+9:固特利契轉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+01:週轉金
+02:購置不動產
+03:營業用資產
+04:固定資產
+05:企業投資
+06:購置動產
+09:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+00:本人
+01:夫
+02:妻
+03:父
+04:母
+05:子
+06:女
+07:兄
+08:弟
+09:姊
+10:妹
+11:姪子
+99:其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:男
+2:女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1STEP TX
+1/2:2STEP TX
+1/2/3/4:3STEP TX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1538,6 +1544,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1573,6 +1596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1748,11 +1788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1768,14 +1808,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
@@ -1788,7 +1828,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32"/>
@@ -1796,14 +1836,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="34"/>
@@ -1811,14 +1851,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="34"/>
@@ -1826,11 +1866,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="29"/>
@@ -1839,7 +1879,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="6"/>
@@ -1850,7 +1890,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="51"/>
       <c r="C7" s="6"/>
@@ -1887,13 +1927,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E9" s="12">
         <v>7</v>
@@ -1907,13 +1947,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="12">
         <v>3</v>
@@ -1927,13 +1967,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="12">
         <v>3</v>
@@ -1947,13 +1987,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E12" s="18">
         <v>4</v>
@@ -1967,13 +2007,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="E13" s="18">
         <v>3</v>
@@ -1987,20 +2027,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="12">
         <v>2</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2009,13 +2049,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" s="12">
         <v>6</v>
@@ -2031,13 +2071,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E16" s="12">
         <v>6</v>
@@ -2053,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -2075,13 +2115,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E18" s="12">
         <v>6</v>
@@ -2097,20 +2137,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="12">
         <v>1</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="25" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2119,13 +2159,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E20" s="12">
         <v>2</v>
@@ -2139,20 +2179,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="12">
         <v>1</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2161,13 +2201,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" s="12">
         <v>3</v>
@@ -2181,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="12">
         <v>16</v>
@@ -2203,13 +2243,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" s="12">
         <v>16</v>
@@ -2225,13 +2265,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="12">
         <v>8</v>
@@ -2245,13 +2285,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="12">
         <v>2</v>
@@ -2265,13 +2305,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" s="12">
         <v>2</v>
@@ -2285,13 +2325,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="12">
         <v>3</v>
@@ -2305,13 +2345,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E29" s="12">
         <v>8</v>
@@ -2325,20 +2365,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E30" s="40">
         <v>1</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="43" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2347,42 +2387,42 @@
         <v>23</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="12">
         <v>1</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="15" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2391,13 +2431,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" s="12">
         <v>2</v>
@@ -2411,13 +2451,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="12">
         <v>2</v>
@@ -2431,13 +2471,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E35" s="12">
         <v>3</v>
@@ -2451,13 +2491,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="12">
         <v>3</v>
@@ -2471,13 +2511,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E37" s="18">
         <v>3</v>
@@ -2491,13 +2531,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E38" s="12">
         <v>8</v>
@@ -2511,13 +2551,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E39" s="12">
         <v>8</v>
@@ -2531,20 +2571,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E40" s="12">
         <v>8</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2553,20 +2593,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E41" s="12">
         <v>8</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="26" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2575,13 +2615,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" s="12">
         <v>16</v>
@@ -2597,13 +2637,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E43" s="12">
         <v>3</v>
@@ -2617,13 +2657,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" s="12">
         <v>8</v>
@@ -2637,13 +2677,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E45" s="12">
         <v>2</v>
@@ -2657,13 +2697,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E46" s="12">
         <v>8</v>
@@ -2677,13 +2717,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E47" s="12">
         <v>8</v>
@@ -2697,13 +2737,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E48" s="18">
         <v>8</v>
@@ -2717,13 +2757,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E49" s="18">
         <v>8</v>
@@ -2737,13 +2777,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E50" s="18">
         <v>16</v>
@@ -2759,13 +2799,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E51" s="12">
         <v>16</v>
@@ -2781,13 +2821,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="12">
         <v>16</v>
@@ -2797,26 +2837,26 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E53" s="12">
         <v>1</v>
       </c>
       <c r="F53" s="12"/>
-      <c r="G53" s="26" t="s">
-        <v>44</v>
+      <c r="G53" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2825,20 +2865,20 @@
         <v>46</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E54" s="12">
         <v>1</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="25" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2847,20 +2887,20 @@
         <v>47</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="25" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2869,20 +2909,20 @@
         <v>48</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" s="47">
         <v>1</v>
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="48" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2891,13 +2931,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E57" s="47">
         <v>16</v>
@@ -2913,20 +2953,20 @@
         <v>50</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E58" s="12">
         <v>2</v>
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="25" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2935,13 +2975,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E59" s="12">
         <v>6</v>
@@ -2955,20 +2995,20 @@
         <v>52</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E60" s="12">
         <v>2</v>
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="38" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2977,13 +3017,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E61" s="12">
         <v>100</v>
@@ -2997,13 +3037,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E62" s="12">
         <v>10</v>
@@ -3017,13 +3057,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="12">
         <v>8</v>
@@ -3031,26 +3071,26 @@
       <c r="F63" s="12"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E64" s="12">
         <v>1</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="28" t="s">
-        <v>143</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3059,20 +3099,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E65" s="12">
         <v>1</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="25" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3081,20 +3121,20 @@
         <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3103,13 +3143,13 @@
         <v>59</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
@@ -3123,13 +3163,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E68" s="3">
         <v>6</v>
@@ -3143,13 +3183,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
@@ -3163,20 +3203,20 @@
         <v>62</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3185,13 +3225,13 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E71" s="3">
         <v>4</v>
@@ -3205,13 +3245,13 @@
         <v>64</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E72" s="3">
         <v>14</v>
@@ -3225,13 +3265,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
@@ -3245,13 +3285,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
@@ -3265,13 +3305,13 @@
         <v>67</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E75" s="3">
         <v>40</v>
@@ -3285,13 +3325,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
@@ -3305,13 +3345,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E77" s="12">
         <v>8</v>
@@ -3325,13 +3365,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" s="18">
         <v>4</v>
@@ -3345,13 +3385,13 @@
         <v>71</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -3363,13 +3403,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E80" s="12">
         <v>6</v>
@@ -3383,13 +3423,13 @@
         <v>73</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -3401,13 +3441,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E82" s="12">
         <v>6</v>
@@ -3435,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3453,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -3464,90 +3504,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,13 +3615,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3589,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3600,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3611,10 +3651,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3622,10 +3662,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3633,10 +3673,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3644,10 +3684,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3655,10 +3695,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3666,10 +3706,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3677,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3688,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3699,10 +3739,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,10 +3750,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3721,10 +3761,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B05D88-D6D2-4077-9EBF-4BC9DF8FD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE6009-9593-488E-B1B1-46C66AEB986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
